--- a/docs/Excel formulas.xlsx
+++ b/docs/Excel formulas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="658">
   <si>
     <t>SUM</t>
   </si>
@@ -1993,6 +1993,9 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>done?</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2580,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3206,11 +3229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H476"/>
+  <dimension ref="A1:I476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H375" sqref="H375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,9 +3244,10 @@
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>187</v>
       </c>
@@ -3245,11 +3269,14 @@
       <c r="G1" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -3269,11 +3296,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="b">
-        <f>OR(E2,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G2:H65" si="0">OR(E2,D2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>190</v>
       </c>
@@ -3293,11 +3323,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="b">
-        <f>OR(E3,D3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>191</v>
       </c>
@@ -3317,11 +3350,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="7" t="b">
-        <f>OR(E4,D4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>192</v>
       </c>
@@ -3341,11 +3377,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="b">
-        <f>OR(E5,D5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>193</v>
       </c>
@@ -3365,11 +3404,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="b">
-        <f>OR(E6,D6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>495</v>
       </c>
@@ -3392,11 +3434,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="b">
-        <f>OR(E7,D7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>496</v>
       </c>
@@ -3419,11 +3464,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="b">
-        <f>OR(E8,D8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>115</v>
       </c>
@@ -3443,11 +3491,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="b">
-        <f>OR(E9,D9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>497</v>
       </c>
@@ -3467,11 +3518,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="b">
-        <f>OR(E10,D10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>194</v>
       </c>
@@ -3491,11 +3545,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="7" t="b">
-        <f>OR(E11,D11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>195</v>
       </c>
@@ -3515,11 +3572,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="7" t="b">
-        <f>OR(E12,D12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -3539,11 +3599,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="7" t="b">
-        <f>OR(E13,D13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>498</v>
       </c>
@@ -3566,11 +3629,14 @@
         <v>0</v>
       </c>
       <c r="G14" s="7" t="b">
-        <f>OR(E14,D14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>196</v>
       </c>
@@ -3590,11 +3656,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="7" t="b">
-        <f>OR(E15,D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>197</v>
       </c>
@@ -3614,11 +3683,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="7" t="b">
-        <f>OR(E16,D16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>198</v>
       </c>
@@ -3638,11 +3710,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="7" t="b">
-        <f>OR(E17,D17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>199</v>
       </c>
@@ -3662,11 +3737,14 @@
         <v>0</v>
       </c>
       <c r="G18" s="7" t="b">
-        <f>OR(E18,D18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>200</v>
       </c>
@@ -3686,11 +3764,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="7" t="b">
-        <f>OR(E19,D19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>201</v>
       </c>
@@ -3710,11 +3791,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="b">
-        <f>OR(E20,D20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>202</v>
       </c>
@@ -3734,11 +3818,14 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="b">
-        <f>OR(E21,D21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>203</v>
       </c>
@@ -3758,11 +3845,14 @@
         <v>0</v>
       </c>
       <c r="G22" s="7" t="b">
-        <f>OR(E22,D22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
@@ -3782,11 +3872,14 @@
         <v>1</v>
       </c>
       <c r="G23" s="7" t="b">
-        <f>OR(E23,D23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -3806,11 +3899,14 @@
         <v>1</v>
       </c>
       <c r="G24" s="7" t="b">
-        <f>OR(E24,D24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>204</v>
       </c>
@@ -3830,11 +3926,14 @@
         <v>0</v>
       </c>
       <c r="G25" s="7" t="b">
-        <f>OR(E25,D25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>205</v>
       </c>
@@ -3854,11 +3953,14 @@
         <v>0</v>
       </c>
       <c r="G26" s="7" t="b">
-        <f>OR(E26,D26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>206</v>
       </c>
@@ -3878,11 +3980,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="7" t="b">
-        <f>OR(E27,D27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>207</v>
       </c>
@@ -3902,11 +4007,14 @@
         <v>0</v>
       </c>
       <c r="G28" s="7" t="b">
-        <f>OR(E28,D28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>208</v>
       </c>
@@ -3926,11 +4034,14 @@
         <v>0</v>
       </c>
       <c r="G29" s="7" t="b">
-        <f>OR(E29,D29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>209</v>
       </c>
@@ -3950,11 +4061,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="7" t="b">
-        <f>OR(E30,D30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>210</v>
       </c>
@@ -3974,11 +4088,14 @@
         <v>0</v>
       </c>
       <c r="G31" s="7" t="b">
-        <f>OR(E31,D31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>534</v>
       </c>
@@ -4001,11 +4118,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="7" t="b">
-        <f>OR(E32,D32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>535</v>
       </c>
@@ -4028,11 +4148,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="7" t="b">
-        <f>OR(E33,D33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>211</v>
       </c>
@@ -4052,11 +4175,14 @@
         <v>0</v>
       </c>
       <c r="G34" s="7" t="b">
-        <f>OR(E34,D34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>212</v>
       </c>
@@ -4076,11 +4202,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="7" t="b">
-        <f>OR(E35,D35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>213</v>
       </c>
@@ -4100,11 +4229,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="7" t="b">
-        <f>OR(E36,D36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>214</v>
       </c>
@@ -4124,11 +4256,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="7" t="b">
-        <f>OR(E37,D37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>215</v>
       </c>
@@ -4148,11 +4283,14 @@
         <v>0</v>
       </c>
       <c r="G38" s="7" t="b">
-        <f>OR(E38,D38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>537</v>
       </c>
@@ -4175,11 +4313,14 @@
         <v>0</v>
       </c>
       <c r="G39" s="7" t="b">
-        <f>OR(E39,D39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>538</v>
       </c>
@@ -4202,11 +4343,14 @@
         <v>0</v>
       </c>
       <c r="G40" s="7" t="b">
-        <f>OR(E40,D40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>539</v>
       </c>
@@ -4229,11 +4373,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="7" t="b">
-        <f>OR(E41,D41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
@@ -4253,11 +4400,14 @@
         <v>0</v>
       </c>
       <c r="G42" s="7" t="b">
-        <f>OR(E42,D42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>468</v>
       </c>
@@ -4280,11 +4430,14 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="b">
-        <f>OR(E43,D43)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>469</v>
       </c>
@@ -4307,11 +4460,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="7" t="b">
-        <f>OR(E44,D44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>470</v>
       </c>
@@ -4334,11 +4490,14 @@
         <v>0</v>
       </c>
       <c r="G45" s="7" t="b">
-        <f>OR(E45,D45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>471</v>
       </c>
@@ -4361,11 +4520,14 @@
         <v>0</v>
       </c>
       <c r="G46" s="7" t="b">
-        <f>OR(E46,D46)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>472</v>
       </c>
@@ -4388,11 +4550,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="7" t="b">
-        <f>OR(E47,D47)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>217</v>
       </c>
@@ -4412,11 +4577,14 @@
         <v>0</v>
       </c>
       <c r="G48" s="7" t="b">
-        <f>OR(E48,D48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
@@ -4436,11 +4604,14 @@
         <v>1</v>
       </c>
       <c r="G49" s="7" t="b">
-        <f>OR(E49,D49)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>500</v>
       </c>
@@ -4463,11 +4634,14 @@
         <v>0</v>
       </c>
       <c r="G50" s="7" t="b">
-        <f>OR(E50,D50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>501</v>
       </c>
@@ -4487,11 +4661,14 @@
         <v>0</v>
       </c>
       <c r="G51" s="7" t="b">
-        <f>OR(E51,D51)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>42</v>
       </c>
@@ -4511,11 +4688,14 @@
         <v>1</v>
       </c>
       <c r="G52" s="7" t="b">
-        <f>OR(E52,D52)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>82</v>
       </c>
@@ -4535,11 +4715,14 @@
         <v>1</v>
       </c>
       <c r="G53" s="7" t="b">
-        <f>OR(E53,D53)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>218</v>
       </c>
@@ -4559,11 +4742,14 @@
         <v>0</v>
       </c>
       <c r="G54" s="7" t="b">
-        <f>OR(E54,D54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>219</v>
       </c>
@@ -4583,11 +4769,14 @@
         <v>0</v>
       </c>
       <c r="G55" s="7" t="b">
-        <f>OR(E55,D55)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>541</v>
       </c>
@@ -4610,11 +4799,14 @@
         <v>0</v>
       </c>
       <c r="G56" s="7" t="b">
-        <f>OR(E56,D56)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>542</v>
       </c>
@@ -4637,11 +4829,14 @@
         <v>0</v>
       </c>
       <c r="G57" s="7" t="b">
-        <f>OR(E57,D57)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>543</v>
       </c>
@@ -4664,11 +4859,14 @@
         <v>0</v>
       </c>
       <c r="G58" s="7" t="b">
-        <f>OR(E58,D58)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>544</v>
       </c>
@@ -4691,11 +4889,14 @@
         <v>0</v>
       </c>
       <c r="G59" s="7" t="b">
-        <f>OR(E59,D59)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>545</v>
       </c>
@@ -4718,11 +4919,14 @@
         <v>0</v>
       </c>
       <c r="G60" s="7" t="b">
-        <f>OR(E60,D60)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>220</v>
       </c>
@@ -4742,11 +4946,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="7" t="b">
-        <f>OR(E61,D61)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>70</v>
       </c>
@@ -4766,11 +4973,14 @@
         <v>1</v>
       </c>
       <c r="G62" s="7" t="b">
-        <f>OR(E62,D62)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>221</v>
       </c>
@@ -4790,11 +5000,14 @@
         <v>0</v>
       </c>
       <c r="G63" s="7" t="b">
-        <f>OR(E63,D63)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>222</v>
       </c>
@@ -4814,11 +5027,14 @@
         <v>0</v>
       </c>
       <c r="G64" s="7" t="b">
-        <f>OR(E64,D64)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>147</v>
       </c>
@@ -4838,11 +5054,14 @@
         <v>1</v>
       </c>
       <c r="G65" s="7" t="b">
-        <f>OR(E65,D65)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>223</v>
       </c>
@@ -4862,11 +5081,14 @@
         <v>0</v>
       </c>
       <c r="G66" s="7" t="b">
-        <f>OR(E66,D66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G66:G129" si="1">OR(E66,D66)</f>
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>224</v>
       </c>
@@ -4886,11 +5108,14 @@
         <v>0</v>
       </c>
       <c r="G67" s="7" t="b">
-        <f>OR(E67,D67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>502</v>
       </c>
@@ -4913,11 +5138,14 @@
         <v>0</v>
       </c>
       <c r="G68" s="7" t="b">
-        <f>OR(E68,D68)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>225</v>
       </c>
@@ -4937,11 +5165,14 @@
         <v>0</v>
       </c>
       <c r="G69" s="7" t="b">
-        <f>OR(E69,D69)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>120</v>
       </c>
@@ -4964,11 +5195,14 @@
         <v>1</v>
       </c>
       <c r="G70" s="7" t="b">
-        <f>OR(E70,D70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>68</v>
       </c>
@@ -4988,11 +5222,14 @@
         <v>1</v>
       </c>
       <c r="G71" s="7" t="b">
-        <f>OR(E71,D71)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>226</v>
       </c>
@@ -5012,11 +5249,14 @@
         <v>0</v>
       </c>
       <c r="G72" s="7" t="b">
-        <f>OR(E72,D72)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>546</v>
       </c>
@@ -5039,11 +5279,14 @@
         <v>0</v>
       </c>
       <c r="G73" s="7" t="b">
-        <f>OR(E73,D73)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H73" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>547</v>
       </c>
@@ -5066,11 +5309,14 @@
         <v>0</v>
       </c>
       <c r="G74" s="7" t="b">
-        <f>OR(E74,D74)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>227</v>
       </c>
@@ -5090,11 +5336,14 @@
         <v>0</v>
       </c>
       <c r="G75" s="7" t="b">
-        <f>OR(E75,D75)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H75" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>100</v>
       </c>
@@ -5114,11 +5363,14 @@
         <v>1</v>
       </c>
       <c r="G76" s="7" t="b">
-        <f>OR(E76,D76)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>228</v>
       </c>
@@ -5138,11 +5390,14 @@
         <v>0</v>
       </c>
       <c r="G77" s="7" t="b">
-        <f>OR(E77,D77)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>229</v>
       </c>
@@ -5162,11 +5417,14 @@
         <v>0</v>
       </c>
       <c r="G78" s="7" t="b">
-        <f>OR(E78,D78)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>503</v>
       </c>
@@ -5189,11 +5447,14 @@
         <v>0</v>
       </c>
       <c r="G79" s="7" t="b">
-        <f>OR(E79,D79)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>48</v>
       </c>
@@ -5213,11 +5474,14 @@
         <v>1</v>
       </c>
       <c r="G80" s="7" t="b">
-        <f>OR(E80,D80)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>96</v>
       </c>
@@ -5237,11 +5501,14 @@
         <v>1</v>
       </c>
       <c r="G81" s="7" t="b">
-        <f>OR(E81,D81)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>230</v>
       </c>
@@ -5261,11 +5528,14 @@
         <v>0</v>
       </c>
       <c r="G82" s="7" t="b">
-        <f>OR(E82,D82)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>17</v>
       </c>
@@ -5285,11 +5555,14 @@
         <v>1</v>
       </c>
       <c r="G83" s="7" t="b">
-        <f>OR(E83,D83)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H83" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>231</v>
       </c>
@@ -5309,11 +5582,14 @@
         <v>0</v>
       </c>
       <c r="G84" s="7" t="b">
-        <f>OR(E84,D84)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H84" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>232</v>
       </c>
@@ -5333,11 +5609,14 @@
         <v>0</v>
       </c>
       <c r="G85" s="7" t="b">
-        <f>OR(E85,D85)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>233</v>
       </c>
@@ -5357,11 +5636,14 @@
         <v>0</v>
       </c>
       <c r="G86" s="7" t="b">
-        <f>OR(E86,D86)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H86" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>234</v>
       </c>
@@ -5381,11 +5663,14 @@
         <v>0</v>
       </c>
       <c r="G87" s="7" t="b">
-        <f>OR(E87,D87)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H87" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>235</v>
       </c>
@@ -5405,11 +5690,14 @@
         <v>0</v>
       </c>
       <c r="G88" s="7" t="b">
-        <f>OR(E88,D88)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H88" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>236</v>
       </c>
@@ -5429,11 +5717,14 @@
         <v>0</v>
       </c>
       <c r="G89" s="7" t="b">
-        <f>OR(E89,D89)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H89" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>237</v>
       </c>
@@ -5453,11 +5744,14 @@
         <v>0</v>
       </c>
       <c r="G90" s="7" t="b">
-        <f>OR(E90,D90)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H90" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>125</v>
       </c>
@@ -5477,11 +5771,14 @@
         <v>1</v>
       </c>
       <c r="G91" s="7" t="b">
-        <f>OR(E91,D91)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H91" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>551</v>
       </c>
@@ -5504,11 +5801,14 @@
         <v>0</v>
       </c>
       <c r="G92" s="7" t="b">
-        <f>OR(E92,D92)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H92" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>552</v>
       </c>
@@ -5531,11 +5831,14 @@
         <v>0</v>
       </c>
       <c r="G93" s="7" t="b">
-        <f>OR(E93,D93)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H93" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>238</v>
       </c>
@@ -5555,11 +5858,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="7" t="b">
-        <f>OR(E94,D94)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H94" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>505</v>
       </c>
@@ -5582,11 +5888,14 @@
         <v>0</v>
       </c>
       <c r="G95" s="7" t="b">
-        <f>OR(E95,D95)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H95" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>506</v>
       </c>
@@ -5609,11 +5918,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="7" t="b">
-        <f>OR(E96,D96)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H96" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>239</v>
       </c>
@@ -5633,11 +5945,14 @@
         <v>0</v>
       </c>
       <c r="G97" s="7" t="b">
-        <f>OR(E97,D97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>240</v>
       </c>
@@ -5657,11 +5972,14 @@
         <v>0</v>
       </c>
       <c r="G98" s="7" t="b">
-        <f>OR(E98,D98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>241</v>
       </c>
@@ -5681,11 +5999,14 @@
         <v>0</v>
       </c>
       <c r="G99" s="7" t="b">
-        <f>OR(E99,D99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>242</v>
       </c>
@@ -5705,11 +6026,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="7" t="b">
-        <f>OR(E100,D100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>243</v>
       </c>
@@ -5729,11 +6053,14 @@
         <v>0</v>
       </c>
       <c r="G101" s="7" t="b">
-        <f>OR(E101,D101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>244</v>
       </c>
@@ -5753,11 +6080,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="7" t="b">
-        <f>OR(E102,D102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>245</v>
       </c>
@@ -5777,11 +6107,14 @@
         <v>0</v>
       </c>
       <c r="G103" s="7" t="b">
-        <f>OR(E103,D103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>246</v>
       </c>
@@ -5801,11 +6134,14 @@
         <v>0</v>
       </c>
       <c r="G104" s="7" t="b">
-        <f>OR(E104,D104)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H104" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>247</v>
       </c>
@@ -5825,11 +6161,14 @@
         <v>0</v>
       </c>
       <c r="G105" s="7" t="b">
-        <f>OR(E105,D105)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H105" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>45</v>
       </c>
@@ -5849,11 +6188,14 @@
         <v>1</v>
       </c>
       <c r="G106" s="7" t="b">
-        <f>OR(E106,D106)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H106" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>636</v>
       </c>
@@ -5873,11 +6215,14 @@
         <v>0</v>
       </c>
       <c r="G107" s="7" t="b">
-        <f>OR(E107,D107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>5</v>
       </c>
@@ -5897,11 +6242,14 @@
         <v>1</v>
       </c>
       <c r="G108" s="7" t="b">
-        <f>OR(E108,D108)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>174</v>
       </c>
@@ -5921,11 +6269,14 @@
         <v>1</v>
       </c>
       <c r="G109" s="7" t="b">
-        <f>OR(E109,D109)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H109" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>46</v>
       </c>
@@ -5945,11 +6296,14 @@
         <v>1</v>
       </c>
       <c r="G110" s="7" t="b">
-        <f>OR(E110,D110)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H110" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>462</v>
       </c>
@@ -5972,11 +6326,14 @@
         <v>0</v>
       </c>
       <c r="G111" s="7" t="b">
-        <f>OR(E111,D111)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H111" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>80</v>
       </c>
@@ -5996,11 +6353,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="7" t="b">
-        <f>OR(E112,D112)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H112" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>248</v>
       </c>
@@ -6020,11 +6380,14 @@
         <v>0</v>
       </c>
       <c r="G113" s="7" t="b">
-        <f>OR(E113,D113)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H113" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>607</v>
       </c>
@@ -6047,11 +6410,14 @@
         <v>0</v>
       </c>
       <c r="G114" s="7" t="b">
-        <f>OR(E114,D114)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H114" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>249</v>
       </c>
@@ -6071,11 +6437,14 @@
         <v>0</v>
       </c>
       <c r="G115" s="7" t="b">
-        <f>OR(E115,D115)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H115" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>250</v>
       </c>
@@ -6095,11 +6464,14 @@
         <v>0</v>
       </c>
       <c r="G116" s="7" t="b">
-        <f>OR(E116,D116)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H116" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>251</v>
       </c>
@@ -6119,11 +6491,14 @@
         <v>0</v>
       </c>
       <c r="G117" s="7" t="b">
-        <f>OR(E117,D117)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H117" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>252</v>
       </c>
@@ -6143,11 +6518,14 @@
         <v>0</v>
       </c>
       <c r="G118" s="7" t="b">
-        <f>OR(E118,D118)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H118" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>253</v>
       </c>
@@ -6167,11 +6545,14 @@
         <v>0</v>
       </c>
       <c r="G119" s="7" t="b">
-        <f>OR(E119,D119)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H119" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>254</v>
       </c>
@@ -6191,11 +6572,14 @@
         <v>0</v>
       </c>
       <c r="G120" s="7" t="b">
-        <f>OR(E120,D120)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H120" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>507</v>
       </c>
@@ -6218,11 +6602,14 @@
         <v>0</v>
       </c>
       <c r="G121" s="7" t="b">
-        <f>OR(E121,D121)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H121" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>255</v>
       </c>
@@ -6242,11 +6629,14 @@
         <v>0</v>
       </c>
       <c r="G122" s="7" t="b">
-        <f>OR(E122,D122)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H122" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>256</v>
       </c>
@@ -6266,11 +6656,14 @@
         <v>0</v>
       </c>
       <c r="G123" s="7" t="b">
-        <f>OR(E123,D123)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H123" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>257</v>
       </c>
@@ -6290,11 +6683,14 @@
         <v>0</v>
       </c>
       <c r="G124" s="7" t="b">
-        <f>OR(E124,D124)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H124" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>258</v>
       </c>
@@ -6314,11 +6710,14 @@
         <v>0</v>
       </c>
       <c r="G125" s="7" t="b">
-        <f>OR(E125,D125)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>259</v>
       </c>
@@ -6338,11 +6737,14 @@
         <v>0</v>
       </c>
       <c r="G126" s="7" t="b">
-        <f>OR(E126,D126)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H126" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>171</v>
       </c>
@@ -6362,11 +6764,14 @@
         <v>1</v>
       </c>
       <c r="G127" s="7" t="b">
-        <f>OR(E127,D127)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H127" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>172</v>
       </c>
@@ -6386,11 +6791,14 @@
         <v>1</v>
       </c>
       <c r="G128" s="7" t="b">
-        <f>OR(E128,D128)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H128" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>181</v>
       </c>
@@ -6410,11 +6818,14 @@
         <v>1</v>
       </c>
       <c r="G129" s="7" t="b">
-        <f>OR(E129,D129)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H129" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>260</v>
       </c>
@@ -6434,11 +6845,14 @@
         <v>0</v>
       </c>
       <c r="G130" s="7" t="b">
-        <f>OR(E130,D130)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G130:G193" si="2">OR(E130,D130)</f>
+        <v>1</v>
+      </c>
+      <c r="H130" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>261</v>
       </c>
@@ -6458,11 +6872,14 @@
         <v>0</v>
       </c>
       <c r="G131" s="7" t="b">
-        <f>OR(E131,D131)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H131" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>262</v>
       </c>
@@ -6482,11 +6899,14 @@
         <v>0</v>
       </c>
       <c r="G132" s="7" t="b">
-        <f>OR(E132,D132)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H132" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>173</v>
       </c>
@@ -6506,11 +6926,14 @@
         <v>1</v>
       </c>
       <c r="G133" s="7" t="b">
-        <f>OR(E133,D133)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H133" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>263</v>
       </c>
@@ -6530,11 +6953,14 @@
         <v>0</v>
       </c>
       <c r="G134" s="7" t="b">
-        <f>OR(E134,D134)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H134" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>110</v>
       </c>
@@ -6554,11 +6980,14 @@
         <v>1</v>
       </c>
       <c r="G135" s="7" t="b">
-        <f>OR(E135,D135)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H135" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>264</v>
       </c>
@@ -6578,11 +7007,14 @@
         <v>0</v>
       </c>
       <c r="G136" s="7" t="b">
-        <f>OR(E136,D136)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H136" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>265</v>
       </c>
@@ -6602,11 +7034,14 @@
         <v>0</v>
       </c>
       <c r="G137" s="7" t="b">
-        <f>OR(E137,D137)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H137" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>266</v>
       </c>
@@ -6626,11 +7061,14 @@
         <v>0</v>
       </c>
       <c r="G138" s="7" t="b">
-        <f>OR(E138,D138)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>81</v>
       </c>
@@ -6650,11 +7088,14 @@
         <v>1</v>
       </c>
       <c r="G139" s="7" t="b">
-        <f>OR(E139,D139)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H139" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>267</v>
       </c>
@@ -6674,11 +7115,14 @@
         <v>0</v>
       </c>
       <c r="G140" s="7" t="b">
-        <f>OR(E140,D140)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H140" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>47</v>
       </c>
@@ -6698,11 +7142,14 @@
         <v>1</v>
       </c>
       <c r="G141" s="7" t="b">
-        <f>OR(E141,D141)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H141" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>268</v>
       </c>
@@ -6722,11 +7169,14 @@
         <v>0</v>
       </c>
       <c r="G142" s="7" t="b">
-        <f>OR(E142,D142)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H142" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>473</v>
       </c>
@@ -6749,11 +7199,14 @@
         <v>0</v>
       </c>
       <c r="G143" s="7" t="b">
-        <f>OR(E143,D143)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H143" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>269</v>
       </c>
@@ -6773,11 +7226,14 @@
         <v>0</v>
       </c>
       <c r="G144" s="7" t="b">
-        <f>OR(E144,D144)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H144" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>474</v>
       </c>
@@ -6800,11 +7256,14 @@
         <v>0</v>
       </c>
       <c r="G145" s="7" t="b">
-        <f>OR(E145,D145)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H145" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>270</v>
       </c>
@@ -6824,11 +7283,14 @@
         <v>0</v>
       </c>
       <c r="G146" s="7" t="b">
-        <f>OR(E146,D146)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H146" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>271</v>
       </c>
@@ -6848,11 +7310,14 @@
         <v>0</v>
       </c>
       <c r="G147" s="7" t="b">
-        <f>OR(E147,D147)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H147" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>272</v>
       </c>
@@ -6872,11 +7337,14 @@
         <v>0</v>
       </c>
       <c r="G148" s="7" t="b">
-        <f>OR(E148,D148)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H148" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>185</v>
       </c>
@@ -6896,11 +7364,14 @@
         <v>1</v>
       </c>
       <c r="G149" s="7" t="b">
-        <f>OR(E149,D149)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H149" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>62</v>
       </c>
@@ -6920,11 +7391,14 @@
         <v>1</v>
       </c>
       <c r="G150" s="7" t="b">
-        <f>OR(E150,D150)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H150" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>554</v>
       </c>
@@ -6947,11 +7421,14 @@
         <v>0</v>
       </c>
       <c r="G151" s="7" t="b">
-        <f>OR(E151,D151)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H151" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>273</v>
       </c>
@@ -6971,11 +7448,14 @@
         <v>0</v>
       </c>
       <c r="G152" s="7" t="b">
-        <f>OR(E152,D152)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>556</v>
       </c>
@@ -6998,11 +7478,14 @@
         <v>0</v>
       </c>
       <c r="G153" s="7" t="b">
-        <f>OR(E153,D153)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>557</v>
       </c>
@@ -7025,11 +7508,14 @@
         <v>0</v>
       </c>
       <c r="G154" s="7" t="b">
-        <f>OR(E154,D154)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H154" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>558</v>
       </c>
@@ -7052,11 +7538,14 @@
         <v>0</v>
       </c>
       <c r="G155" s="7" t="b">
-        <f>OR(E155,D155)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H155" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>559</v>
       </c>
@@ -7079,11 +7568,14 @@
         <v>0</v>
       </c>
       <c r="G156" s="7" t="b">
-        <f>OR(E156,D156)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H156" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>560</v>
       </c>
@@ -7106,11 +7598,14 @@
         <v>0</v>
       </c>
       <c r="G157" s="7" t="b">
-        <f>OR(E157,D157)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H157" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>274</v>
       </c>
@@ -7130,11 +7625,14 @@
         <v>0</v>
       </c>
       <c r="G158" s="7" t="b">
-        <f>OR(E158,D158)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H158" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>275</v>
       </c>
@@ -7154,11 +7652,14 @@
         <v>0</v>
       </c>
       <c r="G159" s="7" t="b">
-        <f>OR(E159,D159)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H159" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>655</v>
       </c>
@@ -7178,11 +7679,14 @@
         <v>0</v>
       </c>
       <c r="G160" s="7" t="b">
-        <f>OR(E160,D160)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H160" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>76</v>
       </c>
@@ -7202,11 +7706,14 @@
         <v>1</v>
       </c>
       <c r="G161" s="7" t="b">
-        <f>OR(E161,D161)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H161" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>638</v>
       </c>
@@ -7229,11 +7736,14 @@
         <v>0</v>
       </c>
       <c r="G162" s="7" t="b">
-        <f>OR(E162,D162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H162" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>12</v>
       </c>
@@ -7253,11 +7763,14 @@
         <v>1</v>
       </c>
       <c r="G163" s="7" t="b">
-        <f>OR(E163,D163)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H163" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>276</v>
       </c>
@@ -7277,11 +7790,14 @@
         <v>0</v>
       </c>
       <c r="G164" s="7" t="b">
-        <f>OR(E164,D164)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>77</v>
       </c>
@@ -7301,11 +7817,14 @@
         <v>1</v>
       </c>
       <c r="G165" s="7" t="b">
-        <f>OR(E165,D165)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H165" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>277</v>
       </c>
@@ -7325,11 +7844,14 @@
         <v>0</v>
       </c>
       <c r="G166" s="7" t="b">
-        <f>OR(E166,D166)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H166" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>278</v>
       </c>
@@ -7349,11 +7871,14 @@
         <v>0</v>
       </c>
       <c r="G167" s="7" t="b">
-        <f>OR(E167,D167)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H167" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>104</v>
       </c>
@@ -7373,11 +7898,14 @@
         <v>1</v>
       </c>
       <c r="G168" s="7" t="b">
-        <f>OR(E168,D168)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H168" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>279</v>
       </c>
@@ -7397,11 +7925,14 @@
         <v>0</v>
       </c>
       <c r="G169" s="7" t="b">
-        <f>OR(E169,D169)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H169" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>508</v>
       </c>
@@ -7424,11 +7955,14 @@
         <v>0</v>
       </c>
       <c r="G170" s="7" t="b">
-        <f>OR(E170,D170)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H170" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>509</v>
       </c>
@@ -7448,11 +7982,14 @@
         <v>0</v>
       </c>
       <c r="G171" s="7" t="b">
-        <f>OR(E171,D171)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H171" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>280</v>
       </c>
@@ -7472,11 +8009,14 @@
         <v>0</v>
       </c>
       <c r="G172" s="7" t="b">
-        <f>OR(E172,D172)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H172" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>640</v>
       </c>
@@ -7499,11 +8039,14 @@
         <v>0</v>
       </c>
       <c r="G173" s="7" t="b">
-        <f>OR(E173,D173)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H173" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>641</v>
       </c>
@@ -7526,11 +8069,14 @@
         <v>0</v>
       </c>
       <c r="G174" s="7" t="b">
-        <f>OR(E174,D174)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>643</v>
       </c>
@@ -7553,11 +8099,14 @@
         <v>0</v>
       </c>
       <c r="G175" s="7" t="b">
-        <f>OR(E175,D175)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H175" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>644</v>
       </c>
@@ -7580,11 +8129,14 @@
         <v>0</v>
       </c>
       <c r="G176" s="7" t="b">
-        <f>OR(E176,D176)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>642</v>
       </c>
@@ -7607,11 +8159,14 @@
         <v>0</v>
       </c>
       <c r="G177" s="7" t="b">
-        <f>OR(E177,D177)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>645</v>
       </c>
@@ -7634,11 +8189,14 @@
         <v>0</v>
       </c>
       <c r="G178" s="7" t="b">
-        <f>OR(E178,D178)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H178" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>176</v>
       </c>
@@ -7658,11 +8216,14 @@
         <v>1</v>
       </c>
       <c r="G179" s="7" t="b">
-        <f>OR(E179,D179)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H179" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>281</v>
       </c>
@@ -7682,11 +8243,14 @@
         <v>0</v>
       </c>
       <c r="G180" s="7" t="b">
-        <f>OR(E180,D180)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H180" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>107</v>
       </c>
@@ -7706,11 +8270,14 @@
         <v>1</v>
       </c>
       <c r="G181" s="7" t="b">
-        <f>OR(E181,D181)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H181" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>282</v>
       </c>
@@ -7730,11 +8297,14 @@
         <v>0</v>
       </c>
       <c r="G182" s="7" t="b">
-        <f>OR(E182,D182)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H182" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>561</v>
       </c>
@@ -7757,11 +8327,14 @@
         <v>0</v>
       </c>
       <c r="G183" s="7" t="b">
-        <f>OR(E183,D183)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H183" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>562</v>
       </c>
@@ -7784,11 +8357,14 @@
         <v>0</v>
       </c>
       <c r="G184" s="7" t="b">
-        <f>OR(E184,D184)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H184" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>563</v>
       </c>
@@ -7811,11 +8387,14 @@
         <v>0</v>
       </c>
       <c r="G185" s="7" t="b">
-        <f>OR(E185,D185)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H185" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>283</v>
       </c>
@@ -7835,11 +8414,14 @@
         <v>0</v>
       </c>
       <c r="G186" s="7" t="b">
-        <f>OR(E186,D186)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H186" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>284</v>
       </c>
@@ -7859,11 +8441,14 @@
         <v>0</v>
       </c>
       <c r="G187" s="7" t="b">
-        <f>OR(E187,D187)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H187" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>285</v>
       </c>
@@ -7883,11 +8468,14 @@
         <v>0</v>
       </c>
       <c r="G188" s="7" t="b">
-        <f>OR(E188,D188)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H188" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>564</v>
       </c>
@@ -7910,11 +8498,14 @@
         <v>0</v>
       </c>
       <c r="G189" s="7" t="b">
-        <f>OR(E189,D189)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H189" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>565</v>
       </c>
@@ -7937,11 +8528,14 @@
         <v>0</v>
       </c>
       <c r="G190" s="7" t="b">
-        <f>OR(E190,D190)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H190" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>286</v>
       </c>
@@ -7961,11 +8555,14 @@
         <v>0</v>
       </c>
       <c r="G191" s="7" t="b">
-        <f>OR(E191,D191)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H191" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>287</v>
       </c>
@@ -7985,11 +8582,14 @@
         <v>0</v>
       </c>
       <c r="G192" s="7" t="b">
-        <f>OR(E192,D192)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H192" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>288</v>
       </c>
@@ -8009,11 +8609,14 @@
         <v>0</v>
       </c>
       <c r="G193" s="7" t="b">
-        <f>OR(E193,D193)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H193" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>289</v>
       </c>
@@ -8033,11 +8636,14 @@
         <v>0</v>
       </c>
       <c r="G194" s="7" t="b">
-        <f>OR(E194,D194)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G194:G257" si="3">OR(E194,D194)</f>
+        <v>0</v>
+      </c>
+      <c r="H194" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>290</v>
       </c>
@@ -8057,11 +8663,14 @@
         <v>0</v>
       </c>
       <c r="G195" s="7" t="b">
-        <f>OR(E195,D195)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H195" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>291</v>
       </c>
@@ -8081,11 +8690,14 @@
         <v>0</v>
       </c>
       <c r="G196" s="7" t="b">
-        <f>OR(E196,D196)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H196" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>292</v>
       </c>
@@ -8105,11 +8717,14 @@
         <v>0</v>
       </c>
       <c r="G197" s="7" t="b">
-        <f>OR(E197,D197)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H197" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>293</v>
       </c>
@@ -8129,11 +8744,14 @@
         <v>0</v>
       </c>
       <c r="G198" s="7" t="b">
-        <f>OR(E198,D198)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H198" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>294</v>
       </c>
@@ -8153,11 +8771,14 @@
         <v>0</v>
       </c>
       <c r="G199" s="7" t="b">
-        <f>OR(E199,D199)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H199" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>34</v>
       </c>
@@ -8177,11 +8798,14 @@
         <v>1</v>
       </c>
       <c r="G200" s="7" t="b">
-        <f>OR(E200,D200)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H200" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>43</v>
       </c>
@@ -8201,11 +8825,14 @@
         <v>1</v>
       </c>
       <c r="G201" s="7" t="b">
-        <f>OR(E201,D201)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H201" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>646</v>
       </c>
@@ -8225,11 +8852,14 @@
         <v>0</v>
       </c>
       <c r="G202" s="7" t="b">
-        <f>OR(E202,D202)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H202" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>186</v>
       </c>
@@ -8249,11 +8879,14 @@
         <v>1</v>
       </c>
       <c r="G203" s="7" t="b">
-        <f>OR(E203,D203)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H203" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>295</v>
       </c>
@@ -8273,11 +8906,14 @@
         <v>0</v>
       </c>
       <c r="G204" s="7" t="b">
-        <f>OR(E204,D204)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H204" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>1</v>
       </c>
@@ -8297,11 +8933,14 @@
         <v>1</v>
       </c>
       <c r="G205" s="7" t="b">
-        <f>OR(E205,D205)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H205" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>296</v>
       </c>
@@ -8321,11 +8960,14 @@
         <v>0</v>
       </c>
       <c r="G206" s="7" t="b">
-        <f>OR(E206,D206)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H206" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>423</v>
       </c>
@@ -8348,11 +8990,14 @@
         <v>0</v>
       </c>
       <c r="G207" s="7" t="b">
-        <f>OR(E207,D207)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H207" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>647</v>
       </c>
@@ -8375,11 +9020,14 @@
         <v>0</v>
       </c>
       <c r="G208" s="7" t="b">
-        <f>OR(E208,D208)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H208" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>297</v>
       </c>
@@ -8399,11 +9047,14 @@
         <v>0</v>
       </c>
       <c r="G209" s="7" t="b">
-        <f>OR(E209,D209)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H209" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>298</v>
       </c>
@@ -8423,11 +9074,14 @@
         <v>0</v>
       </c>
       <c r="G210" s="7" t="b">
-        <f>OR(E210,D210)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H210" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>299</v>
       </c>
@@ -8447,11 +9101,14 @@
         <v>0</v>
       </c>
       <c r="G211" s="7" t="b">
-        <f>OR(E211,D211)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H211" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>300</v>
       </c>
@@ -8471,11 +9128,14 @@
         <v>0</v>
       </c>
       <c r="G212" s="7" t="b">
-        <f>OR(E212,D212)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H212" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>301</v>
       </c>
@@ -8495,11 +9155,14 @@
         <v>0</v>
       </c>
       <c r="G213" s="7" t="b">
-        <f>OR(E213,D213)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H213" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>475</v>
       </c>
@@ -8522,11 +9185,14 @@
         <v>0</v>
       </c>
       <c r="G214" s="7" t="b">
-        <f>OR(E214,D214)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H214" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>476</v>
       </c>
@@ -8549,11 +9215,14 @@
         <v>0</v>
       </c>
       <c r="G215" s="7" t="b">
-        <f>OR(E215,D215)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H215" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>480</v>
       </c>
@@ -8576,11 +9245,14 @@
         <v>0</v>
       </c>
       <c r="G216" s="7" t="b">
-        <f>OR(E216,D216)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H216" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>481</v>
       </c>
@@ -8603,11 +9275,14 @@
         <v>0</v>
       </c>
       <c r="G217" s="7" t="b">
-        <f>OR(E217,D217)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H217" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>302</v>
       </c>
@@ -8627,11 +9302,14 @@
         <v>0</v>
       </c>
       <c r="G218" s="7" t="b">
-        <f>OR(E218,D218)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H218" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>303</v>
       </c>
@@ -8651,11 +9329,14 @@
         <v>0</v>
       </c>
       <c r="G219" s="7" t="b">
-        <f>OR(E219,D219)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H219" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>304</v>
       </c>
@@ -8675,11 +9356,14 @@
         <v>0</v>
       </c>
       <c r="G220" s="7" t="b">
-        <f>OR(E220,D220)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H220" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>305</v>
       </c>
@@ -8699,11 +9383,14 @@
         <v>0</v>
       </c>
       <c r="G221" s="7" t="b">
-        <f>OR(E221,D221)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H221" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>306</v>
       </c>
@@ -8723,11 +9410,14 @@
         <v>0</v>
       </c>
       <c r="G222" s="7" t="b">
-        <f>OR(E222,D222)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H222" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>307</v>
       </c>
@@ -8747,11 +9437,14 @@
         <v>0</v>
       </c>
       <c r="G223" s="7" t="b">
-        <f>OR(E223,D223)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H223" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>308</v>
       </c>
@@ -8771,11 +9464,14 @@
         <v>0</v>
       </c>
       <c r="G224" s="7" t="b">
-        <f>OR(E224,D224)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H224" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>309</v>
       </c>
@@ -8795,11 +9491,14 @@
         <v>0</v>
       </c>
       <c r="G225" s="7" t="b">
-        <f>OR(E225,D225)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H225" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>477</v>
       </c>
@@ -8822,11 +9521,14 @@
         <v>0</v>
       </c>
       <c r="G226" s="7" t="b">
-        <f>OR(E226,D226)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H226" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>478</v>
       </c>
@@ -8849,11 +9551,14 @@
         <v>0</v>
       </c>
       <c r="G227" s="7" t="b">
-        <f>OR(E227,D227)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H227" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>310</v>
       </c>
@@ -8873,11 +9578,14 @@
         <v>0</v>
       </c>
       <c r="G228" s="7" t="b">
-        <f>OR(E228,D228)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H228" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>479</v>
       </c>
@@ -8900,11 +9608,14 @@
         <v>0</v>
       </c>
       <c r="G229" s="7" t="b">
-        <f>OR(E229,D229)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H229" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>311</v>
       </c>
@@ -8924,11 +9635,14 @@
         <v>0</v>
       </c>
       <c r="G230" s="7" t="b">
-        <f>OR(E230,D230)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H230" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>312</v>
       </c>
@@ -8948,11 +9662,14 @@
         <v>0</v>
       </c>
       <c r="G231" s="7" t="b">
-        <f>OR(E231,D231)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H231" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>313</v>
       </c>
@@ -8972,11 +9689,14 @@
         <v>0</v>
       </c>
       <c r="G232" s="7" t="b">
-        <f>OR(E232,D232)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H232" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>482</v>
       </c>
@@ -8999,11 +9719,14 @@
         <v>0</v>
       </c>
       <c r="G233" s="7" t="b">
-        <f>OR(E233,D233)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H233" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>9</v>
       </c>
@@ -9023,11 +9746,14 @@
         <v>1</v>
       </c>
       <c r="G234" s="7" t="b">
-        <f>OR(E234,D234)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H234" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>113</v>
       </c>
@@ -9047,11 +9773,14 @@
         <v>1</v>
       </c>
       <c r="G235" s="7" t="b">
-        <f>OR(E235,D235)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H235" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>314</v>
       </c>
@@ -9071,11 +9800,14 @@
         <v>0</v>
       </c>
       <c r="G236" s="7" t="b">
-        <f>OR(E236,D236)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H236" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>56</v>
       </c>
@@ -9095,11 +9827,14 @@
         <v>1</v>
       </c>
       <c r="G237" s="7" t="b">
-        <f>OR(E237,D237)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H237" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>315</v>
       </c>
@@ -9119,11 +9854,14 @@
         <v>0</v>
       </c>
       <c r="G238" s="7" t="b">
-        <f>OR(E238,D238)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H238" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>316</v>
       </c>
@@ -9143,11 +9881,14 @@
         <v>0</v>
       </c>
       <c r="G239" s="7" t="b">
-        <f>OR(E239,D239)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H239" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>93</v>
       </c>
@@ -9167,11 +9908,14 @@
         <v>1</v>
       </c>
       <c r="G240" s="7" t="b">
-        <f>OR(E240,D240)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H240" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>83</v>
       </c>
@@ -9191,11 +9935,14 @@
         <v>1</v>
       </c>
       <c r="G241" s="7" t="b">
-        <f>OR(E241,D241)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H241" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>98</v>
       </c>
@@ -9215,11 +9962,14 @@
         <v>1</v>
       </c>
       <c r="G242" s="7" t="b">
-        <f>OR(E242,D242)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H242" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>79</v>
       </c>
@@ -9239,11 +9989,14 @@
         <v>1</v>
       </c>
       <c r="G243" s="7" t="b">
-        <f>OR(E243,D243)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H243" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>35</v>
       </c>
@@ -9263,11 +10016,14 @@
         <v>1</v>
       </c>
       <c r="G244" s="7" t="b">
-        <f>OR(E244,D244)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H244" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>317</v>
       </c>
@@ -9287,11 +10043,14 @@
         <v>0</v>
       </c>
       <c r="G245" s="7" t="b">
-        <f>OR(E245,D245)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H245" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>489</v>
       </c>
@@ -9314,11 +10073,14 @@
         <v>0</v>
       </c>
       <c r="G246" s="7" t="b">
-        <f>OR(E246,D246)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H246" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>318</v>
       </c>
@@ -9338,11 +10100,14 @@
         <v>0</v>
       </c>
       <c r="G247" s="7" t="b">
-        <f>OR(E247,D247)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H247" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>27</v>
       </c>
@@ -9362,11 +10127,14 @@
         <v>1</v>
       </c>
       <c r="G248" s="7" t="b">
-        <f>OR(E248,D248)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H248" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>319</v>
       </c>
@@ -9386,11 +10154,14 @@
         <v>0</v>
       </c>
       <c r="G249" s="7" t="b">
-        <f>OR(E249,D249)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H249" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>11</v>
       </c>
@@ -9410,11 +10181,14 @@
         <v>1</v>
       </c>
       <c r="G250" s="7" t="b">
-        <f>OR(E250,D250)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H250" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>648</v>
       </c>
@@ -9437,11 +10211,14 @@
         <v>0</v>
       </c>
       <c r="G251" s="7" t="b">
-        <f>OR(E251,D251)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H251" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>320</v>
       </c>
@@ -9461,11 +10238,14 @@
         <v>0</v>
       </c>
       <c r="G252" s="7" t="b">
-        <f>OR(E252,D252)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H252" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>464</v>
       </c>
@@ -9488,11 +10268,14 @@
         <v>0</v>
       </c>
       <c r="G253" s="7" t="b">
-        <f>OR(E253,D253)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H253" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>322</v>
       </c>
@@ -9512,11 +10295,14 @@
         <v>0</v>
       </c>
       <c r="G254" s="7" t="b">
-        <f>OR(E254,D254)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H254" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>321</v>
       </c>
@@ -9536,11 +10322,14 @@
         <v>0</v>
       </c>
       <c r="G255" s="7" t="b">
-        <f>OR(E255,D255)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H255" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>30</v>
       </c>
@@ -9560,11 +10349,14 @@
         <v>1</v>
       </c>
       <c r="G256" s="7" t="b">
-        <f>OR(E256,D256)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H256" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>323</v>
       </c>
@@ -9584,11 +10376,14 @@
         <v>0</v>
       </c>
       <c r="G257" s="7" t="b">
-        <f>OR(E257,D257)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H257" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>177</v>
       </c>
@@ -9608,11 +10403,14 @@
         <v>1</v>
       </c>
       <c r="G258" s="7" t="b">
-        <f>OR(E258,D258)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G258:G321" si="4">OR(E258,D258)</f>
+        <v>1</v>
+      </c>
+      <c r="H258" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>121</v>
       </c>
@@ -9632,11 +10430,14 @@
         <v>1</v>
       </c>
       <c r="G259" s="7" t="b">
-        <f>OR(E259,D259)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H259" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>324</v>
       </c>
@@ -9656,11 +10457,14 @@
         <v>0</v>
       </c>
       <c r="G260" s="7" t="b">
-        <f>OR(E260,D260)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H260" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>10</v>
       </c>
@@ -9680,11 +10484,14 @@
         <v>1</v>
       </c>
       <c r="G261" s="7" t="b">
-        <f>OR(E261,D261)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H261" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>325</v>
       </c>
@@ -9704,11 +10511,14 @@
         <v>0</v>
       </c>
       <c r="G262" s="7" t="b">
-        <f>OR(E262,D262)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H262" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>101</v>
       </c>
@@ -9728,11 +10538,14 @@
         <v>1</v>
       </c>
       <c r="G263" s="7" t="b">
-        <f>OR(E263,D263)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H263" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>326</v>
       </c>
@@ -9752,11 +10565,14 @@
         <v>0</v>
       </c>
       <c r="G264" s="7" t="b">
-        <f>OR(E264,D264)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H264" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>144</v>
       </c>
@@ -9776,11 +10592,14 @@
         <v>1</v>
       </c>
       <c r="G265" s="7" t="b">
-        <f>OR(E265,D265)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H265" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>61</v>
       </c>
@@ -9800,11 +10619,14 @@
         <v>1</v>
       </c>
       <c r="G266" s="7" t="b">
-        <f>OR(E266,D266)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H266" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>327</v>
       </c>
@@ -9824,11 +10646,14 @@
         <v>0</v>
       </c>
       <c r="G267" s="7" t="b">
-        <f>OR(E267,D267)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H267" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>328</v>
       </c>
@@ -9848,11 +10673,14 @@
         <v>0</v>
       </c>
       <c r="G268" s="7" t="b">
-        <f>OR(E268,D268)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H268" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>329</v>
       </c>
@@ -9872,11 +10700,14 @@
         <v>0</v>
       </c>
       <c r="G269" s="7" t="b">
-        <f>OR(E269,D269)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H269" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>330</v>
       </c>
@@ -9896,11 +10727,14 @@
         <v>0</v>
       </c>
       <c r="G270" s="7" t="b">
-        <f>OR(E270,D270)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H270" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>569</v>
       </c>
@@ -9923,11 +10757,14 @@
         <v>0</v>
       </c>
       <c r="G271" s="7" t="b">
-        <f>OR(E271,D271)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H271" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>570</v>
       </c>
@@ -9950,11 +10787,14 @@
         <v>0</v>
       </c>
       <c r="G272" s="7" t="b">
-        <f>OR(E272,D272)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H272" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>331</v>
       </c>
@@ -9974,11 +10814,14 @@
         <v>0</v>
       </c>
       <c r="G273" s="7" t="b">
-        <f>OR(E273,D273)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H273" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>84</v>
       </c>
@@ -9998,11 +10841,14 @@
         <v>1</v>
       </c>
       <c r="G274" s="7" t="b">
-        <f>OR(E274,D274)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H274" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>332</v>
       </c>
@@ -10022,11 +10868,14 @@
         <v>0</v>
       </c>
       <c r="G275" s="7" t="b">
-        <f>OR(E275,D275)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H275" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>21</v>
       </c>
@@ -10046,11 +10895,14 @@
         <v>1</v>
       </c>
       <c r="G276" s="7" t="b">
-        <f>OR(E276,D276)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H276" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>49</v>
       </c>
@@ -10070,11 +10922,14 @@
         <v>1</v>
       </c>
       <c r="G277" s="7" t="b">
-        <f>OR(E277,D277)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H277" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>333</v>
       </c>
@@ -10094,11 +10949,14 @@
         <v>0</v>
       </c>
       <c r="G278" s="7" t="b">
-        <f>OR(E278,D278)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H278" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>649</v>
       </c>
@@ -10121,11 +10979,14 @@
         <v>0</v>
       </c>
       <c r="G279" s="7" t="b">
-        <f>OR(E279,D279)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H279" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>334</v>
       </c>
@@ -10145,11 +11006,14 @@
         <v>0</v>
       </c>
       <c r="G280" s="7" t="b">
-        <f>OR(E280,D280)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H280" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>335</v>
       </c>
@@ -10169,11 +11033,14 @@
         <v>0</v>
       </c>
       <c r="G281" s="7" t="b">
-        <f>OR(E281,D281)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H281" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>69</v>
       </c>
@@ -10193,11 +11060,14 @@
         <v>1</v>
       </c>
       <c r="G282" s="7" t="b">
-        <f>OR(E282,D282)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H282" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>19</v>
       </c>
@@ -10217,11 +11087,14 @@
         <v>1</v>
       </c>
       <c r="G283" s="7" t="b">
-        <f>OR(E283,D283)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H283" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>336</v>
       </c>
@@ -10241,11 +11114,14 @@
         <v>0</v>
       </c>
       <c r="G284" s="7" t="b">
-        <f>OR(E284,D284)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H284" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>26</v>
       </c>
@@ -10265,11 +11141,14 @@
         <v>1</v>
       </c>
       <c r="G285" s="7" t="b">
-        <f>OR(E285,D285)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H285" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>86</v>
       </c>
@@ -10289,11 +11168,14 @@
         <v>1</v>
       </c>
       <c r="G286" s="7" t="b">
-        <f>OR(E286,D286)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H286" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>650</v>
       </c>
@@ -10316,11 +11198,14 @@
         <v>0</v>
       </c>
       <c r="G287" s="7" t="b">
-        <f>OR(E287,D287)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H287" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>337</v>
       </c>
@@ -10340,11 +11225,14 @@
         <v>0</v>
       </c>
       <c r="G288" s="7" t="b">
-        <f>OR(E288,D288)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H288" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>338</v>
       </c>
@@ -10364,11 +11252,14 @@
         <v>0</v>
       </c>
       <c r="G289" s="7" t="b">
-        <f>OR(E289,D289)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H289" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>339</v>
       </c>
@@ -10388,11 +11279,14 @@
         <v>0</v>
       </c>
       <c r="G290" s="7" t="b">
-        <f>OR(E290,D290)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H290" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>340</v>
       </c>
@@ -10412,11 +11306,14 @@
         <v>0</v>
       </c>
       <c r="G291" s="7" t="b">
-        <f>OR(E291,D291)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H291" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>57</v>
       </c>
@@ -10436,11 +11333,14 @@
         <v>1</v>
       </c>
       <c r="G292" s="7" t="b">
-        <f>OR(E292,D292)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H292" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>341</v>
       </c>
@@ -10460,11 +11360,14 @@
         <v>0</v>
       </c>
       <c r="G293" s="7" t="b">
-        <f>OR(E293,D293)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H293" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>571</v>
       </c>
@@ -10487,11 +11390,14 @@
         <v>0</v>
       </c>
       <c r="G294" s="7" t="b">
-        <f>OR(E294,D294)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H294" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>572</v>
       </c>
@@ -10514,11 +11420,14 @@
         <v>0</v>
       </c>
       <c r="G295" s="7" t="b">
-        <f>OR(E295,D295)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H295" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>14</v>
       </c>
@@ -10538,11 +11447,14 @@
         <v>1</v>
       </c>
       <c r="G296" s="7" t="b">
-        <f>OR(E296,D296)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H296" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>342</v>
       </c>
@@ -10562,11 +11474,14 @@
         <v>0</v>
       </c>
       <c r="G297" s="7" t="b">
-        <f>OR(E297,D297)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H297" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>343</v>
       </c>
@@ -10586,11 +11501,14 @@
         <v>0</v>
       </c>
       <c r="G298" s="7" t="b">
-        <f>OR(E298,D298)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H298" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>511</v>
       </c>
@@ -10613,11 +11531,14 @@
         <v>0</v>
       </c>
       <c r="G299" s="7" t="b">
-        <f>OR(E299,D299)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H299" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>344</v>
       </c>
@@ -10637,11 +11558,14 @@
         <v>0</v>
       </c>
       <c r="G300" s="7" t="b">
-        <f>OR(E300,D300)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H300" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>52</v>
       </c>
@@ -10661,11 +11585,14 @@
         <v>1</v>
       </c>
       <c r="G301" s="7" t="b">
-        <f>OR(E301,D301)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H301" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>574</v>
       </c>
@@ -10688,11 +11615,14 @@
         <v>0</v>
       </c>
       <c r="G302" s="7" t="b">
-        <f>OR(E302,D302)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H302" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>345</v>
       </c>
@@ -10712,11 +11642,14 @@
         <v>0</v>
       </c>
       <c r="G303" s="7" t="b">
-        <f>OR(E303,D303)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H303" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>39</v>
       </c>
@@ -10736,11 +11669,14 @@
         <v>1</v>
       </c>
       <c r="G304" s="7" t="b">
-        <f>OR(E304,D304)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H304" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>465</v>
       </c>
@@ -10763,11 +11699,14 @@
         <v>0</v>
       </c>
       <c r="G305" s="7" t="b">
-        <f>OR(E305,D305)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H305" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>346</v>
       </c>
@@ -10787,11 +11726,14 @@
         <v>0</v>
       </c>
       <c r="G306" s="7" t="b">
-        <f>OR(E306,D306)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H306" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>576</v>
       </c>
@@ -10814,11 +11756,14 @@
         <v>0</v>
       </c>
       <c r="G307" s="7" t="b">
-        <f>OR(E307,D307)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H307" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>577</v>
       </c>
@@ -10841,11 +11786,14 @@
         <v>0</v>
       </c>
       <c r="G308" s="7" t="b">
-        <f>OR(E308,D308)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H308" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>579</v>
       </c>
@@ -10868,11 +11816,14 @@
         <v>0</v>
       </c>
       <c r="G309" s="7" t="b">
-        <f>OR(E309,D309)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H309" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>580</v>
       </c>
@@ -10895,11 +11846,14 @@
         <v>0</v>
       </c>
       <c r="G310" s="7" t="b">
-        <f>OR(E310,D310)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H310" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>130</v>
       </c>
@@ -10919,11 +11873,14 @@
         <v>1</v>
       </c>
       <c r="G311" s="7" t="b">
-        <f>OR(E311,D311)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H311" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>347</v>
       </c>
@@ -10943,11 +11900,14 @@
         <v>0</v>
       </c>
       <c r="G312" s="7" t="b">
-        <f>OR(E312,D312)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H312" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>97</v>
       </c>
@@ -10967,11 +11927,14 @@
         <v>1</v>
       </c>
       <c r="G313" s="7" t="b">
-        <f>OR(E313,D313)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H313" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>348</v>
       </c>
@@ -10991,11 +11954,14 @@
         <v>0</v>
       </c>
       <c r="G314" s="7" t="b">
-        <f>OR(E314,D314)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H314" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>55</v>
       </c>
@@ -11015,11 +11981,14 @@
         <v>1</v>
       </c>
       <c r="G315" s="7" t="b">
-        <f>OR(E315,D315)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H315" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>23</v>
       </c>
@@ -11039,11 +12008,14 @@
         <v>1</v>
       </c>
       <c r="G316" s="7" t="b">
-        <f>OR(E316,D316)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H316" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>349</v>
       </c>
@@ -11063,11 +12035,14 @@
         <v>0</v>
       </c>
       <c r="G317" s="7" t="b">
-        <f>OR(E317,D317)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H317" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>50</v>
       </c>
@@ -11087,11 +12062,14 @@
         <v>1</v>
       </c>
       <c r="G318" s="7" t="b">
-        <f>OR(E318,D318)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H318" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>609</v>
       </c>
@@ -11114,11 +12092,14 @@
         <v>0</v>
       </c>
       <c r="G319" s="7" t="b">
-        <f>OR(E319,D319)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H319" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>350</v>
       </c>
@@ -11138,11 +12119,14 @@
         <v>0</v>
       </c>
       <c r="G320" s="7" t="b">
-        <f>OR(E320,D320)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H320" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>351</v>
       </c>
@@ -11162,11 +12146,14 @@
         <v>0</v>
       </c>
       <c r="G321" s="7" t="b">
-        <f>OR(E321,D321)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H321" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>352</v>
       </c>
@@ -11186,11 +12173,14 @@
         <v>0</v>
       </c>
       <c r="G322" s="7" t="b">
-        <f>OR(E322,D322)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G322:G385" si="5">OR(E322,D322)</f>
+        <v>1</v>
+      </c>
+      <c r="H322" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>353</v>
       </c>
@@ -11210,11 +12200,14 @@
         <v>0</v>
       </c>
       <c r="G323" s="7" t="b">
-        <f>OR(E323,D323)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H323" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>354</v>
       </c>
@@ -11234,11 +12227,14 @@
         <v>0</v>
       </c>
       <c r="G324" s="7" t="b">
-        <f>OR(E324,D324)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H324" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>355</v>
       </c>
@@ -11258,11 +12254,14 @@
         <v>0</v>
       </c>
       <c r="G325" s="7" t="b">
-        <f>OR(E325,D325)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H325" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>356</v>
       </c>
@@ -11282,11 +12281,14 @@
         <v>0</v>
       </c>
       <c r="G326" s="7" t="b">
-        <f>OR(E326,D326)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H326" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>357</v>
       </c>
@@ -11306,11 +12308,14 @@
         <v>0</v>
       </c>
       <c r="G327" s="7" t="b">
-        <f>OR(E327,D327)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H327" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>2</v>
       </c>
@@ -11330,11 +12335,14 @@
         <v>1</v>
       </c>
       <c r="G328" s="7" t="b">
-        <f>OR(E328,D328)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H328" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>24</v>
       </c>
@@ -11354,11 +12362,14 @@
         <v>1</v>
       </c>
       <c r="G329" s="7" t="b">
-        <f>OR(E329,D329)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H329" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>484</v>
       </c>
@@ -11381,11 +12392,14 @@
         <v>0</v>
       </c>
       <c r="G330" s="7" t="b">
-        <f>OR(E330,D330)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H330" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>358</v>
       </c>
@@ -11405,11 +12419,14 @@
         <v>0</v>
       </c>
       <c r="G331" s="7" t="b">
-        <f>OR(E331,D331)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H331" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>148</v>
       </c>
@@ -11429,11 +12446,14 @@
         <v>1</v>
       </c>
       <c r="G332" s="7" t="b">
-        <f>OR(E332,D332)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H332" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>581</v>
       </c>
@@ -11456,11 +12476,14 @@
         <v>0</v>
       </c>
       <c r="G333" s="7" t="b">
-        <f>OR(E333,D333)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H333" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>582</v>
       </c>
@@ -11483,11 +12506,14 @@
         <v>0</v>
       </c>
       <c r="G334" s="7" t="b">
-        <f>OR(E334,D334)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H334" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>359</v>
       </c>
@@ -11507,11 +12533,14 @@
         <v>0</v>
       </c>
       <c r="G335" s="7" t="b">
-        <f>OR(E335,D335)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H335" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>583</v>
       </c>
@@ -11534,11 +12563,14 @@
         <v>0</v>
       </c>
       <c r="G336" s="7" t="b">
-        <f>OR(E336,D336)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H336" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>584</v>
       </c>
@@ -11561,11 +12593,14 @@
         <v>0</v>
       </c>
       <c r="G337" s="7" t="b">
-        <f>OR(E337,D337)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H337" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>360</v>
       </c>
@@ -11585,11 +12620,14 @@
         <v>0</v>
       </c>
       <c r="G338" s="7" t="b">
-        <f>OR(E338,D338)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H338" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>585</v>
       </c>
@@ -11612,11 +12650,14 @@
         <v>0</v>
       </c>
       <c r="G339" s="7" t="b">
-        <f>OR(E339,D339)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H339" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>586</v>
       </c>
@@ -11639,11 +12680,14 @@
         <v>0</v>
       </c>
       <c r="G340" s="7" t="b">
-        <f>OR(E340,D340)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H340" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>361</v>
       </c>
@@ -11663,11 +12707,14 @@
         <v>0</v>
       </c>
       <c r="G341" s="7" t="b">
-        <f>OR(E341,D341)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H341" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>129</v>
       </c>
@@ -11687,11 +12734,14 @@
         <v>1</v>
       </c>
       <c r="G342" s="7" t="b">
-        <f>OR(E342,D342)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H342" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>51</v>
       </c>
@@ -11711,11 +12761,14 @@
         <v>1</v>
       </c>
       <c r="G343" s="7" t="b">
-        <f>OR(E343,D343)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H343" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>362</v>
       </c>
@@ -11735,11 +12788,14 @@
         <v>0</v>
       </c>
       <c r="G344" s="7" t="b">
-        <f>OR(E344,D344)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H344" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>587</v>
       </c>
@@ -11762,11 +12818,14 @@
         <v>0</v>
       </c>
       <c r="G345" s="7" t="b">
-        <f>OR(E345,D345)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H345" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>123</v>
       </c>
@@ -11786,11 +12845,14 @@
         <v>1</v>
       </c>
       <c r="G346" s="7" t="b">
-        <f>OR(E346,D346)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H346" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>85</v>
       </c>
@@ -11810,11 +12872,14 @@
         <v>1</v>
       </c>
       <c r="G347" s="7" t="b">
-        <f>OR(E347,D347)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H347" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>363</v>
       </c>
@@ -11834,11 +12899,14 @@
         <v>0</v>
       </c>
       <c r="G348" s="7" t="b">
-        <f>OR(E348,D348)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H348" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>364</v>
       </c>
@@ -11858,11 +12926,14 @@
         <v>0</v>
       </c>
       <c r="G349" s="7" t="b">
-        <f>OR(E349,D349)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H349" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>365</v>
       </c>
@@ -11882,11 +12953,14 @@
         <v>0</v>
       </c>
       <c r="G350" s="7" t="b">
-        <f>OR(E350,D350)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H350" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>366</v>
       </c>
@@ -11906,11 +12980,14 @@
         <v>0</v>
       </c>
       <c r="G351" s="7" t="b">
-        <f>OR(E351,D351)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H351" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>143</v>
       </c>
@@ -11930,11 +13007,14 @@
         <v>1</v>
       </c>
       <c r="G352" s="7" t="b">
-        <f>OR(E352,D352)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H352" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>367</v>
       </c>
@@ -11954,11 +13034,14 @@
         <v>0</v>
       </c>
       <c r="G353" s="7" t="b">
-        <f>OR(E353,D353)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H353" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>94</v>
       </c>
@@ -11978,11 +13061,14 @@
         <v>1</v>
       </c>
       <c r="G354" s="7" t="b">
-        <f>OR(E354,D354)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H354" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>368</v>
       </c>
@@ -12002,11 +13088,14 @@
         <v>0</v>
       </c>
       <c r="G355" s="7" t="b">
-        <f>OR(E355,D355)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H355" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>588</v>
       </c>
@@ -12029,11 +13118,14 @@
         <v>0</v>
       </c>
       <c r="G356" s="7" t="b">
-        <f>OR(E356,D356)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H356" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>589</v>
       </c>
@@ -12056,11 +13148,14 @@
         <v>0</v>
       </c>
       <c r="G357" s="7" t="b">
-        <f>OR(E357,D357)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H357" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>90</v>
       </c>
@@ -12080,11 +13175,14 @@
         <v>1</v>
       </c>
       <c r="G358" s="7" t="b">
-        <f>OR(E358,D358)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H358" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>369</v>
       </c>
@@ -12104,11 +13202,14 @@
         <v>0</v>
       </c>
       <c r="G359" s="7" t="b">
-        <f>OR(E359,D359)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H359" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>127</v>
       </c>
@@ -12128,11 +13229,14 @@
         <v>1</v>
       </c>
       <c r="G360" s="7" t="b">
-        <f>OR(E360,D360)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H360" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>370</v>
       </c>
@@ -12152,11 +13256,14 @@
         <v>0</v>
       </c>
       <c r="G361" s="7" t="b">
-        <f>OR(E361,D361)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H361" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>92</v>
       </c>
@@ -12176,11 +13283,14 @@
         <v>1</v>
       </c>
       <c r="G362" s="7" t="b">
-        <f>OR(E362,D362)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H362" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>590</v>
       </c>
@@ -12203,11 +13313,14 @@
         <v>0</v>
       </c>
       <c r="G363" s="7" t="b">
-        <f>OR(E363,D363)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H363" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>591</v>
       </c>
@@ -12230,11 +13343,14 @@
         <v>0</v>
       </c>
       <c r="G364" s="7" t="b">
-        <f>OR(E364,D364)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H364" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>179</v>
       </c>
@@ -12254,11 +13370,14 @@
         <v>1</v>
       </c>
       <c r="G365" s="7" t="b">
-        <f>OR(E365,D365)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H365" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>371</v>
       </c>
@@ -12278,11 +13397,14 @@
         <v>0</v>
       </c>
       <c r="G366" s="7" t="b">
-        <f>OR(E366,D366)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H366" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>372</v>
       </c>
@@ -12302,11 +13424,14 @@
         <v>0</v>
       </c>
       <c r="G367" s="7" t="b">
-        <f>OR(E367,D367)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H367" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>91</v>
       </c>
@@ -12326,11 +13451,14 @@
         <v>1</v>
       </c>
       <c r="G368" s="7" t="b">
-        <f>OR(E368,D368)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H368" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>373</v>
       </c>
@@ -12350,11 +13478,14 @@
         <v>0</v>
       </c>
       <c r="G369" s="7" t="b">
-        <f>OR(E369,D369)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H369" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>16</v>
       </c>
@@ -12374,11 +13505,14 @@
         <v>1</v>
       </c>
       <c r="G370" s="7" t="b">
-        <f>OR(E370,D370)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H370" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>99</v>
       </c>
@@ -12398,11 +13532,14 @@
         <v>1</v>
       </c>
       <c r="G371" s="7" t="b">
-        <f>OR(E371,D371)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H371" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>374</v>
       </c>
@@ -12422,11 +13559,14 @@
         <v>0</v>
       </c>
       <c r="G372" s="7" t="b">
-        <f>OR(E372,D372)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H372" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>375</v>
       </c>
@@ -12446,11 +13586,14 @@
         <v>0</v>
       </c>
       <c r="G373" s="7" t="b">
-        <f>OR(E373,D373)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H373" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>15</v>
       </c>
@@ -12470,11 +13613,14 @@
         <v>1</v>
       </c>
       <c r="G374" s="7" t="b">
-        <f>OR(E374,D374)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H374" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>89</v>
       </c>
@@ -12494,11 +13640,14 @@
         <v>1</v>
       </c>
       <c r="G375" s="7" t="b">
-        <f>OR(E375,D375)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H375" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>36</v>
       </c>
@@ -12518,11 +13667,14 @@
         <v>1</v>
       </c>
       <c r="G376" s="7" t="b">
-        <f>OR(E376,D376)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H376" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>117</v>
       </c>
@@ -12542,11 +13694,14 @@
         <v>1</v>
       </c>
       <c r="G377" s="7" t="b">
-        <f>OR(E377,D377)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H377" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>28</v>
       </c>
@@ -12566,11 +13721,14 @@
         <v>1</v>
       </c>
       <c r="G378" s="7" t="b">
-        <f>OR(E378,D378)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H378" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>485</v>
       </c>
@@ -12593,11 +13751,14 @@
         <v>0</v>
       </c>
       <c r="G379" s="7" t="b">
-        <f>OR(E379,D379)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H379" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>75</v>
       </c>
@@ -12617,11 +13778,14 @@
         <v>1</v>
       </c>
       <c r="G380" s="7" t="b">
-        <f>OR(E380,D380)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H380" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>376</v>
       </c>
@@ -12641,11 +13805,14 @@
         <v>0</v>
       </c>
       <c r="G381" s="7" t="b">
-        <f>OR(E381,D381)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H381" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>377</v>
       </c>
@@ -12665,11 +13832,14 @@
         <v>0</v>
       </c>
       <c r="G382" s="7" t="b">
-        <f>OR(E382,D382)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H382" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>378</v>
       </c>
@@ -12689,11 +13859,14 @@
         <v>0</v>
       </c>
       <c r="G383" s="7" t="b">
-        <f>OR(E383,D383)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H383" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>512</v>
       </c>
@@ -12716,11 +13889,14 @@
         <v>0</v>
       </c>
       <c r="G384" s="7" t="b">
-        <f>OR(E384,D384)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H384" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>513</v>
       </c>
@@ -12743,11 +13919,14 @@
         <v>0</v>
       </c>
       <c r="G385" s="7" t="b">
-        <f>OR(E385,D385)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H385" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>379</v>
       </c>
@@ -12767,11 +13946,14 @@
         <v>0</v>
       </c>
       <c r="G386" s="7" t="b">
-        <f>OR(E386,D386)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G386:G449" si="6">OR(E386,D386)</f>
+        <v>1</v>
+      </c>
+      <c r="H386" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>380</v>
       </c>
@@ -12791,11 +13973,14 @@
         <v>0</v>
       </c>
       <c r="G387" s="7" t="b">
-        <f>OR(E387,D387)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H387" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>490</v>
       </c>
@@ -12818,11 +14003,14 @@
         <v>0</v>
       </c>
       <c r="G388" s="7" t="b">
-        <f>OR(E388,D388)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H388" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>491</v>
       </c>
@@ -12845,11 +14033,14 @@
         <v>0</v>
       </c>
       <c r="G389" s="7" t="b">
-        <f>OR(E389,D389)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H389" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>381</v>
       </c>
@@ -12869,11 +14060,14 @@
         <v>0</v>
       </c>
       <c r="G390" s="7" t="b">
-        <f>OR(E390,D390)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H390" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>382</v>
       </c>
@@ -12893,11 +14087,14 @@
         <v>0</v>
       </c>
       <c r="G391" s="7" t="b">
-        <f>OR(E391,D391)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H391" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>383</v>
       </c>
@@ -12917,11 +14114,14 @@
         <v>0</v>
       </c>
       <c r="G392" s="7" t="b">
-        <f>OR(E392,D392)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H392" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>175</v>
       </c>
@@ -12941,11 +14141,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="7" t="b">
-        <f>OR(E393,D393)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H393" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>592</v>
       </c>
@@ -12968,11 +14171,14 @@
         <v>0</v>
       </c>
       <c r="G394" s="7" t="b">
-        <f>OR(E394,D394)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H394" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>87</v>
       </c>
@@ -12992,11 +14198,14 @@
         <v>1</v>
       </c>
       <c r="G395" s="7" t="b">
-        <f>OR(E395,D395)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H395" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>384</v>
       </c>
@@ -13016,11 +14225,14 @@
         <v>0</v>
       </c>
       <c r="G396" s="7" t="b">
-        <f>OR(E396,D396)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H396" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>163</v>
       </c>
@@ -13040,11 +14252,14 @@
         <v>1</v>
       </c>
       <c r="G397" s="7" t="b">
-        <f>OR(E397,D397)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H397" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>385</v>
       </c>
@@ -13064,11 +14279,14 @@
         <v>0</v>
       </c>
       <c r="G398" s="7" t="b">
-        <f>OR(E398,D398)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H398" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>60</v>
       </c>
@@ -13088,11 +14306,14 @@
         <v>1</v>
       </c>
       <c r="G399" s="7" t="b">
-        <f>OR(E399,D399)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H399" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>386</v>
       </c>
@@ -13112,11 +14333,14 @@
         <v>0</v>
       </c>
       <c r="G400" s="7" t="b">
-        <f>OR(E400,D400)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H400" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>387</v>
       </c>
@@ -13136,11 +14360,14 @@
         <v>0</v>
       </c>
       <c r="G401" s="7" t="b">
-        <f>OR(E401,D401)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H401" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>65</v>
       </c>
@@ -13160,11 +14387,14 @@
         <v>1</v>
       </c>
       <c r="G402" s="7" t="b">
-        <f>OR(E402,D402)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H402" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>593</v>
       </c>
@@ -13187,11 +14417,14 @@
         <v>0</v>
       </c>
       <c r="G403" s="7" t="b">
-        <f>OR(E403,D403)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H403" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>594</v>
       </c>
@@ -13214,11 +14447,14 @@
         <v>0</v>
       </c>
       <c r="G404" s="7" t="b">
-        <f>OR(E404,D404)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H404" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>388</v>
       </c>
@@ -13238,11 +14474,14 @@
         <v>0</v>
       </c>
       <c r="G405" s="7" t="b">
-        <f>OR(E405,D405)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H405" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>389</v>
       </c>
@@ -13262,11 +14501,14 @@
         <v>0</v>
       </c>
       <c r="G406" s="7" t="b">
-        <f>OR(E406,D406)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H406" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>390</v>
       </c>
@@ -13286,11 +14528,14 @@
         <v>0</v>
       </c>
       <c r="G407" s="7" t="b">
-        <f>OR(E407,D407)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H407" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>391</v>
       </c>
@@ -13310,11 +14555,14 @@
         <v>0</v>
       </c>
       <c r="G408" s="7" t="b">
-        <f>OR(E408,D408)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H408" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>392</v>
       </c>
@@ -13334,11 +14582,14 @@
         <v>0</v>
       </c>
       <c r="G409" s="7" t="b">
-        <f>OR(E409,D409)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H409" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>8</v>
       </c>
@@ -13358,11 +14609,14 @@
         <v>1</v>
       </c>
       <c r="G410" s="7" t="b">
-        <f>OR(E410,D410)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H410" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>0</v>
       </c>
@@ -13382,11 +14636,14 @@
         <v>1</v>
       </c>
       <c r="G411" s="7" t="b">
-        <f>OR(E411,D411)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H411" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>3</v>
       </c>
@@ -13406,11 +14663,14 @@
         <v>1</v>
       </c>
       <c r="G412" s="7" t="b">
-        <f>OR(E412,D412)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H412" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -13430,11 +14690,14 @@
         <v>0</v>
       </c>
       <c r="G413" s="7" t="b">
-        <f>OR(E413,D413)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H413" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>31</v>
       </c>
@@ -13454,11 +14717,14 @@
         <v>1</v>
       </c>
       <c r="G414" s="7" t="b">
-        <f>OR(E414,D414)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H414" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>183</v>
       </c>
@@ -13478,11 +14744,14 @@
         <v>1</v>
       </c>
       <c r="G415" s="7" t="b">
-        <f>OR(E415,D415)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H415" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>394</v>
       </c>
@@ -13502,11 +14771,14 @@
         <v>0</v>
       </c>
       <c r="G416" s="7" t="b">
-        <f>OR(E416,D416)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H416" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>395</v>
       </c>
@@ -13526,11 +14798,14 @@
         <v>0</v>
       </c>
       <c r="G417" s="7" t="b">
-        <f>OR(E417,D417)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H417" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>396</v>
       </c>
@@ -13550,11 +14825,14 @@
         <v>0</v>
       </c>
       <c r="G418" s="7" t="b">
-        <f>OR(E418,D418)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H418" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>425</v>
       </c>
@@ -13577,11 +14855,14 @@
         <v>0</v>
       </c>
       <c r="G419" s="7" t="b">
-        <f>OR(E419,D419)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H419" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>397</v>
       </c>
@@ -13601,11 +14882,14 @@
         <v>0</v>
       </c>
       <c r="G420" s="7" t="b">
-        <f>OR(E420,D420)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H420" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>398</v>
       </c>
@@ -13625,11 +14909,14 @@
         <v>0</v>
       </c>
       <c r="G421" s="7" t="b">
-        <f>OR(E421,D421)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H421" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>595</v>
       </c>
@@ -13652,11 +14939,14 @@
         <v>0</v>
       </c>
       <c r="G422" s="7" t="b">
-        <f>OR(E422,D422)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H422" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>651</v>
       </c>
@@ -13679,11 +14969,14 @@
         <v>0</v>
       </c>
       <c r="G423" s="7" t="b">
-        <f>OR(E423,D423)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H423" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>597</v>
       </c>
@@ -13706,11 +14999,14 @@
         <v>0</v>
       </c>
       <c r="G424" s="7" t="b">
-        <f>OR(E424,D424)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H424" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>598</v>
       </c>
@@ -13733,11 +15029,14 @@
         <v>0</v>
       </c>
       <c r="G425" s="7" t="b">
-        <f>OR(E425,D425)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H425" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>653</v>
       </c>
@@ -13760,11 +15059,14 @@
         <v>0</v>
       </c>
       <c r="G426" s="7" t="b">
-        <f>OR(E426,D426)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H426" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>600</v>
       </c>
@@ -13787,11 +15089,14 @@
         <v>0</v>
       </c>
       <c r="G427" s="7" t="b">
-        <f>OR(E427,D427)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H427" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>399</v>
       </c>
@@ -13811,11 +15116,14 @@
         <v>0</v>
       </c>
       <c r="G428" s="7" t="b">
-        <f>OR(E428,D428)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H428" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>400</v>
       </c>
@@ -13835,11 +15143,14 @@
         <v>0</v>
       </c>
       <c r="G429" s="7" t="b">
-        <f>OR(E429,D429)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H429" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>401</v>
       </c>
@@ -13859,11 +15170,14 @@
         <v>0</v>
       </c>
       <c r="G430" s="7" t="b">
-        <f>OR(E430,D430)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H430" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>402</v>
       </c>
@@ -13883,11 +15197,14 @@
         <v>0</v>
       </c>
       <c r="G431" s="7" t="b">
-        <f>OR(E431,D431)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H431" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>403</v>
       </c>
@@ -13907,11 +15224,14 @@
         <v>0</v>
       </c>
       <c r="G432" s="7" t="b">
-        <f>OR(E432,D432)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H432" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>404</v>
       </c>
@@ -13931,11 +15251,14 @@
         <v>0</v>
       </c>
       <c r="G433" s="7" t="b">
-        <f>OR(E433,D433)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H433" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>6</v>
       </c>
@@ -13955,11 +15278,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="7" t="b">
-        <f>OR(E434,D434)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H434" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>652</v>
       </c>
@@ -13982,11 +15308,14 @@
         <v>0</v>
       </c>
       <c r="G435" s="7" t="b">
-        <f>OR(E435,D435)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H435" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>63</v>
       </c>
@@ -14006,11 +15335,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="7" t="b">
-        <f>OR(E436,D436)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H436" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>405</v>
       </c>
@@ -14030,11 +15362,14 @@
         <v>0</v>
       </c>
       <c r="G437" s="7" t="b">
-        <f>OR(E437,D437)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H437" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>406</v>
       </c>
@@ -14054,11 +15389,14 @@
         <v>0</v>
       </c>
       <c r="G438" s="7" t="b">
-        <f>OR(E438,D438)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H438" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>66</v>
       </c>
@@ -14078,11 +15416,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="7" t="b">
-        <f>OR(E439,D439)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H439" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>78</v>
       </c>
@@ -14102,11 +15443,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="7" t="b">
-        <f>OR(E440,D440)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H440" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>407</v>
       </c>
@@ -14126,11 +15470,14 @@
         <v>0</v>
       </c>
       <c r="G441" s="7" t="b">
-        <f>OR(E441,D441)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H441" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>119</v>
       </c>
@@ -14150,11 +15497,14 @@
         <v>1</v>
       </c>
       <c r="G442" s="7" t="b">
-        <f>OR(E442,D442)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H442" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>408</v>
       </c>
@@ -14174,11 +15524,14 @@
         <v>0</v>
       </c>
       <c r="G443" s="7" t="b">
-        <f>OR(E443,D443)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H443" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
         <v>656</v>
       </c>
@@ -14198,11 +15551,14 @@
         <v>0</v>
       </c>
       <c r="G444" s="7" t="b">
-        <f>OR(E444,D444)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H444" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>182</v>
       </c>
@@ -14222,11 +15578,14 @@
         <v>1</v>
       </c>
       <c r="G445" s="7" t="b">
-        <f>OR(E445,D445)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H445" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>409</v>
       </c>
@@ -14246,11 +15605,14 @@
         <v>0</v>
       </c>
       <c r="G446" s="7" t="b">
-        <f>OR(E446,D446)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H446" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>410</v>
       </c>
@@ -14270,11 +15632,14 @@
         <v>0</v>
       </c>
       <c r="G447" s="7" t="b">
-        <f>OR(E447,D447)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H447" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>615</v>
       </c>
@@ -14297,11 +15662,14 @@
         <v>0</v>
       </c>
       <c r="G448" s="7" t="b">
-        <f>OR(E448,D448)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H448" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>616</v>
       </c>
@@ -14324,11 +15692,14 @@
         <v>0</v>
       </c>
       <c r="G449" s="7" t="b">
-        <f>OR(E449,D449)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H449" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>118</v>
       </c>
@@ -14348,11 +15719,14 @@
         <v>1</v>
       </c>
       <c r="G450" s="7" t="b">
-        <f>OR(E450,D450)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G450:G468" si="7">OR(E450,D450)</f>
+        <v>1</v>
+      </c>
+      <c r="H450" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>18</v>
       </c>
@@ -14372,11 +15746,14 @@
         <v>1</v>
       </c>
       <c r="G451" s="7" t="b">
-        <f>OR(E451,D451)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H451" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>146</v>
       </c>
@@ -14396,11 +15773,14 @@
         <v>1</v>
       </c>
       <c r="G452" s="7" t="b">
-        <f>OR(E452,D452)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H452" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>601</v>
       </c>
@@ -14420,11 +15800,14 @@
         <v>0</v>
       </c>
       <c r="G453" s="7" t="b">
-        <f>OR(E453,D453)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H453" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>602</v>
       </c>
@@ -14444,11 +15827,14 @@
         <v>0</v>
       </c>
       <c r="G454" s="7" t="b">
-        <f>OR(E454,D454)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H454" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>411</v>
       </c>
@@ -14468,11 +15854,14 @@
         <v>0</v>
       </c>
       <c r="G455" s="7" t="b">
-        <f>OR(E455,D455)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H455" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>412</v>
       </c>
@@ -14492,11 +15881,14 @@
         <v>0</v>
       </c>
       <c r="G456" s="7" t="b">
-        <f>OR(E456,D456)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H456" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>413</v>
       </c>
@@ -14516,11 +15908,14 @@
         <v>0</v>
       </c>
       <c r="G457" s="7" t="b">
-        <f>OR(E457,D457)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H457" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>88</v>
       </c>
@@ -14540,11 +15935,14 @@
         <v>1</v>
       </c>
       <c r="G458" s="7" t="b">
-        <f>OR(E458,D458)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H458" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>4</v>
       </c>
@@ -14564,11 +15962,14 @@
         <v>1</v>
       </c>
       <c r="G459" s="7" t="b">
-        <f>OR(E459,D459)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H459" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>654</v>
       </c>
@@ -14591,11 +15992,14 @@
         <v>0</v>
       </c>
       <c r="G460" s="7" t="b">
-        <f>OR(E460,D460)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H460" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>44</v>
       </c>
@@ -14615,11 +16019,14 @@
         <v>1</v>
       </c>
       <c r="G461" s="7" t="b">
-        <f>OR(E461,D461)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H461" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>126</v>
       </c>
@@ -14639,11 +16046,14 @@
         <v>1</v>
       </c>
       <c r="G462" s="7" t="b">
-        <f>OR(E462,D462)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H462" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>414</v>
       </c>
@@ -14663,11 +16073,14 @@
         <v>0</v>
       </c>
       <c r="G463" s="7" t="b">
-        <f>OR(E463,D463)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H463" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>603</v>
       </c>
@@ -14690,11 +16103,14 @@
         <v>0</v>
       </c>
       <c r="G464" s="7" t="b">
-        <f>OR(E464,D464)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H464" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>116</v>
       </c>
@@ -14714,11 +16130,14 @@
         <v>1</v>
       </c>
       <c r="G465" s="7" t="b">
-        <f>OR(E465,D465)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H465" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>466</v>
       </c>
@@ -14738,11 +16157,14 @@
         <v>0</v>
       </c>
       <c r="G466" s="7" t="b">
-        <f>OR(E466,D466)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H466" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>67</v>
       </c>
@@ -14762,11 +16184,14 @@
         <v>1</v>
       </c>
       <c r="G467" s="7" t="b">
-        <f>OR(E467,D467)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H467" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>32</v>
       </c>
@@ -14786,11 +16211,14 @@
         <v>1</v>
       </c>
       <c r="G468" s="7" t="b">
-        <f>OR(E468,D468)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H468" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>424</v>
       </c>
@@ -14800,9 +16228,27 @@
       <c r="C469" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="G469" s="7"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D469" s="2" t="b">
+        <f>IFERROR(MATCH($A469,POI!$A$2:$A$1000,0)&gt;0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E469" s="7" t="b">
+        <f>IFERROR(MATCH($A469,formula.js!$A$2:$A$1000,0)&gt;0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F469" s="2" t="b">
+        <f>IFERROR(MATCH($A469,Enron!$A$2:$A$1000,0)&gt;0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G469" s="7" t="b">
+        <f t="shared" ref="G469:G475" si="8">OR(E469,D469)</f>
+        <v>1</v>
+      </c>
+      <c r="H469" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>13</v>
       </c>
@@ -14822,11 +16268,14 @@
         <v>1</v>
       </c>
       <c r="G470" s="7" t="b">
-        <f>OR(E470,D470)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H470" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>95</v>
       </c>
@@ -14846,11 +16295,14 @@
         <v>1</v>
       </c>
       <c r="G471" s="7" t="b">
-        <f>OR(E471,D471)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H471" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>415</v>
       </c>
@@ -14870,11 +16322,14 @@
         <v>0</v>
       </c>
       <c r="G472" s="7" t="b">
-        <f>OR(E472,D472)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H472" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>416</v>
       </c>
@@ -14894,11 +16349,14 @@
         <v>0</v>
       </c>
       <c r="G473" s="7" t="b">
-        <f>OR(E473,D473)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H473" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>417</v>
       </c>
@@ -14918,11 +16376,14 @@
         <v>0</v>
       </c>
       <c r="G474" s="7" t="b">
-        <f>OR(E474,D474)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H474" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>605</v>
       </c>
@@ -14932,9 +16393,27 @@
       <c r="C475" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="G475" s="7"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D475" s="2" t="b">
+        <f>IFERROR(MATCH($A475,POI!$A$2:$A$1000,0)&gt;0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E475" s="7" t="b">
+        <f>IFERROR(MATCH($A475,formula.js!$A$2:$A$1000,0)&gt;0,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F475" s="2" t="b">
+        <f>IFERROR(MATCH($A475,Enron!$A$2:$A$1000,0)&gt;0,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G475" s="7" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H475" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>418</v>
       </c>
@@ -14956,42 +16435,56 @@
       <c r="G476" s="7" t="b">
         <f>OR(E476,D476)</f>
         <v>1</v>
+      </c>
+      <c r="H476" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H476">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="containsBlanks" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="A1:C1 H1">
+    <cfRule type="containsBlanks" priority="26" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 D1:F255 D256:G466 G467:G476 D467:F1048576">
-    <cfRule type="containsBlanks" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="G1 D1:F255 D476:F1048576 G476 D256:G475">
+    <cfRule type="containsBlanks" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(D1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G255">
-    <cfRule type="containsBlanks" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H476">
+    <cfRule type="containsBlanks" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(H2))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16885,10 +18378,10 @@
     <cfRule type="containsBlanks" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16896,10 +18389,10 @@
     <cfRule type="containsBlanks" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25235,10 +26728,10 @@
     <cfRule type="containsBlanks" priority="25" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25246,10 +26739,10 @@
     <cfRule type="containsBlanks" priority="22" stopIfTrue="1">
       <formula>LEN(TRIM(D1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25257,10 +26750,10 @@
     <cfRule type="containsBlanks" priority="19" stopIfTrue="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25268,10 +26761,10 @@
     <cfRule type="containsBlanks" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25279,10 +26772,10 @@
     <cfRule type="containsBlanks" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25290,10 +26783,10 @@
     <cfRule type="containsBlanks" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29084,10 +30577,10 @@
     <cfRule type="containsBlanks" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29095,10 +30588,10 @@
     <cfRule type="containsBlanks" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29106,10 +30599,10 @@
     <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
